--- a/Assets/ExcelTools/xlsx/特效.xlsx
+++ b/Assets/ExcelTools/xlsx/特效.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2840" windowWidth="28760" windowHeight="16900"/>
+    <workbookView xWindow="3360" yWindow="720" windowWidth="28760" windowHeight="16900"/>
   </bookViews>
   <sheets>
     <sheet name="GameEffectData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>Prefabs/Effect/BulletBombEffect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/Enemy_1_DieEffect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人1爆炸效果</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -713,6 +721,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>60010011</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ExcelTools/xlsx/特效.xlsx
+++ b/Assets/ExcelTools/xlsx/特效.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -89,11 +89,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>敌人1爆炸效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹尾巴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs/Effect/Enemy_1_DieEffect</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>敌人1爆炸效果</t>
+    <t>Prefabs/Effect/BulletTailEffect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人出生特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/ShowEnemy</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -726,7 +742,7 @@
         <v>60010011</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -735,12 +751,58 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>20</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>60010012</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>60010013</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/ExcelTools/xlsx/特效.xlsx
+++ b/Assets/ExcelTools/xlsx/特效.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -110,6 +110,46 @@
   </si>
   <si>
     <t>Prefabs/Effect/ShowEnemy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹出生特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/AddBullet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/ItemBombExplosion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带道具的敌人特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/ItemObjLight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/ItemEffect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/FireEffect</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -806,6 +846,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>60010014</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>60010015</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>60010016</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>60010017</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>60010018</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
